--- a/src/analysis_examples/circadb/results_lomb/cosinor_10410465_bc018507_.xlsx
+++ b/src/analysis_examples/circadb/results_lomb/cosinor_10410465_bc018507_.xlsx
@@ -589,14 +589,14 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>[0.33859000930190825, 0.4213379771517595]</t>
+          <t>[0.3373673512411363, 0.42256063521253145]</t>
         </is>
       </c>
       <c r="M2" t="n">
-        <v>9.547918011776346e-15</v>
+        <v>1.687538997430238e-14</v>
       </c>
       <c r="N2" t="n">
-        <v>9.547918011776346e-15</v>
+        <v>1.687538997430238e-14</v>
       </c>
       <c r="O2" t="n">
         <v>-0.9685791164220783</v>
@@ -617,7 +617,7 @@
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>[0.48987910552735897, 0.5335632397436574]</t>
+          <t>[0.4898664490469997, 0.5335758962240167]</t>
         </is>
       </c>
       <c r="U2" t="n">
